--- a/data/Gemini 3 text.xlsx
+++ b/data/Gemini 3 text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantinos\Documents\GitHub\AI-in-Physics-in-Education\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C7A383-838C-44FD-B439-684FC20F8093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A7DB1-C9E2-43D4-B6B0-69F7D6743217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{007B646C-7A20-4807-9151-B5CF7F271DF4}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
